--- a/EVANS MBUGUA.xlsx
+++ b/EVANS MBUGUA.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="31" activeTab="35"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="36" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <sheet name="NOVEMBER 21" sheetId="36" r:id="rId36"/>
     <sheet name="DECEMBER 21" sheetId="37" r:id="rId37"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -568,7 +568,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
@@ -784,7 +784,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -819,7 +819,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -20198,7 +20198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -20832,10 +20832,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20940,10 +20940,12 @@
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>3500</v>
+      </c>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G15" si="1">E6-F6</f>
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -21156,11 +21158,11 @@
       </c>
       <c r="F16" s="2">
         <f>SUM(F5:F15)</f>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G16" s="2">
         <f>SUM(G5:G15)</f>
-        <v>41750</v>
+        <v>38250</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -21240,7 +21242,7 @@
       </c>
       <c r="G21" s="15">
         <f>F16</f>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -21411,7 +21413,7 @@
       </c>
       <c r="G33" s="24">
         <f>G21+G22-H23</f>
-        <v>-2086</v>
+        <v>1414</v>
       </c>
       <c r="H33" s="24">
         <f>SUM(H25:H32)</f>
@@ -21419,7 +21421,7 @@
       </c>
       <c r="I33" s="15">
         <f>G33-H33</f>
-        <v>-2086</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -21431,6 +21433,11 @@
       </c>
       <c r="G35" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/EVANS MBUGUA.xlsx
+++ b/EVANS MBUGUA.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="172">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -564,6 +564,9 @@
   <si>
     <t>PAID ON 27/11</t>
   </si>
+  <si>
+    <t>MUM7/12</t>
+  </si>
 </sst>
 </file>
 
@@ -20835,7 +20838,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20916,10 +20919,12 @@
         <f t="shared" ref="E5:E15" si="0">C5+D5</f>
         <v>6000</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>5000</v>
+      </c>
       <c r="G5" s="3">
         <f>E5-F5</f>
-        <v>6000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -20971,9 +20976,6 @@
         <f>E7-F7</f>
         <v>9000</v>
       </c>
-      <c r="H7" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -21158,11 +21160,11 @@
       </c>
       <c r="F16" s="2">
         <f>SUM(F5:F15)</f>
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="G16" s="2">
         <f>SUM(G5:G15)</f>
-        <v>38250</v>
+        <v>33250</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -21242,7 +21244,7 @@
       </c>
       <c r="G21" s="15">
         <f>F16</f>
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -21308,16 +21310,20 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>10087</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="27" t="s">
         <v>62</v>
       </c>
       <c r="G25" s="19"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3">
+        <v>10087</v>
+      </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -21402,26 +21408,26 @@
       </c>
       <c r="D33" s="24">
         <f>SUM(D25:D32)</f>
-        <v>0</v>
+        <v>10087</v>
       </c>
       <c r="E33" s="24">
         <f>C33-D33</f>
-        <v>39664</v>
+        <v>29577</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="24">
         <f>G21+G22-H23</f>
-        <v>1414</v>
+        <v>6414</v>
       </c>
       <c r="H33" s="24">
         <f>SUM(H25:H32)</f>
-        <v>0</v>
+        <v>10087</v>
       </c>
       <c r="I33" s="15">
         <f>G33-H33</f>
-        <v>1414</v>
+        <v>-3673</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
